--- a/natmiOut/OldD4/LR-pairs_lrc2p/Mmp12-Plaur.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Mmp12-Plaur.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -86,12 +92,6 @@
   </si>
   <si>
     <t>Plaur</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>sCs</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>17.1867634109762</v>
+        <v>0.007057333333333333</v>
       </c>
       <c r="H2">
-        <v>17.1867634109762</v>
+        <v>0.021172</v>
       </c>
       <c r="I2">
-        <v>0.8052653375947134</v>
+        <v>0.0001677811382698133</v>
       </c>
       <c r="J2">
-        <v>0.8052653375947134</v>
+        <v>0.0001677811382698134</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.4235272026005</v>
+        <v>18.59297266666667</v>
       </c>
       <c r="N2">
-        <v>11.4235272026005</v>
+        <v>55.778918</v>
       </c>
       <c r="O2">
-        <v>0.1014228802345419</v>
+        <v>0.1361024717868078</v>
       </c>
       <c r="P2">
-        <v>0.1014228802345419</v>
+        <v>0.1378163998421381</v>
       </c>
       <c r="Q2">
-        <v>196.3334593499456</v>
+        <v>0.1312168057662222</v>
       </c>
       <c r="R2">
-        <v>196.3334593499456</v>
+        <v>1.180951251896</v>
       </c>
       <c r="S2">
-        <v>0.08167232989189656</v>
+        <v>2.283542763772578E-05</v>
       </c>
       <c r="T2">
-        <v>0.08167232989189656</v>
+        <v>2.312299243776166E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>17.1867634109762</v>
+        <v>0.007057333333333333</v>
       </c>
       <c r="H3">
-        <v>17.1867634109762</v>
+        <v>0.021172</v>
       </c>
       <c r="I3">
-        <v>0.8052653375947134</v>
+        <v>0.0001677811382698133</v>
       </c>
       <c r="J3">
-        <v>0.8052653375947134</v>
+        <v>0.0001677811382698134</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.12714460586886</v>
+        <v>6.746562</v>
       </c>
       <c r="N3">
-        <v>6.12714460586886</v>
+        <v>20.239686</v>
       </c>
       <c r="O3">
-        <v>0.05439936742123669</v>
+        <v>0.04938552757134602</v>
       </c>
       <c r="P3">
-        <v>0.05439936742123669</v>
+        <v>0.05000743575655815</v>
       </c>
       <c r="Q3">
-        <v>105.3057847259071</v>
+        <v>0.047612736888</v>
       </c>
       <c r="R3">
-        <v>105.3057847259071</v>
+        <v>0.428514631992</v>
       </c>
       <c r="S3">
-        <v>0.04380592497140102</v>
+        <v>8.285960029975687E-06</v>
       </c>
       <c r="T3">
-        <v>0.04380592497140102</v>
+        <v>8.390304493189891E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>17.1867634109762</v>
+        <v>0.007057333333333333</v>
       </c>
       <c r="H4">
-        <v>17.1867634109762</v>
+        <v>0.021172</v>
       </c>
       <c r="I4">
-        <v>0.8052653375947134</v>
+        <v>0.0001677811382698133</v>
       </c>
       <c r="J4">
-        <v>0.8052653375947134</v>
+        <v>0.0001677811382698134</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.4349345224199</v>
+        <v>43.343503</v>
       </c>
       <c r="N4">
-        <v>33.4349345224199</v>
+        <v>130.030509</v>
       </c>
       <c r="O4">
-        <v>0.2968494143337083</v>
+        <v>0.3172788988591848</v>
       </c>
       <c r="P4">
-        <v>0.2968494143337083</v>
+        <v>0.3212743678538321</v>
       </c>
       <c r="Q4">
-        <v>574.6383092983115</v>
+        <v>0.3058895485053333</v>
       </c>
       <c r="R4">
-        <v>574.6383092983115</v>
+        <v>2.753005936548</v>
       </c>
       <c r="S4">
-        <v>0.2390425438482265</v>
+        <v>5.3233414799587E-05</v>
       </c>
       <c r="T4">
-        <v>0.2390425438482265</v>
+        <v>5.390377913543068E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>17.1867634109762</v>
+        <v>0.007057333333333333</v>
       </c>
       <c r="H5">
-        <v>17.1867634109762</v>
+        <v>0.021172</v>
       </c>
       <c r="I5">
-        <v>0.8052653375947134</v>
+        <v>0.0001677811382698133</v>
       </c>
       <c r="J5">
-        <v>0.8052653375947134</v>
+        <v>0.0001677811382698134</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>57.5677814568264</v>
+        <v>62.83028666666667</v>
       </c>
       <c r="N5">
-        <v>57.5677814568264</v>
+        <v>188.49086</v>
       </c>
       <c r="O5">
-        <v>0.5111109817933327</v>
+        <v>0.4599241590742428</v>
       </c>
       <c r="P5">
-        <v>0.5111109817933327</v>
+        <v>0.4657159489602949</v>
       </c>
       <c r="Q5">
-        <v>989.4038399932583</v>
+        <v>0.4434142764355555</v>
       </c>
       <c r="R5">
-        <v>989.4038399932583</v>
+        <v>3.99072848792</v>
       </c>
       <c r="S5">
-        <v>0.4115799573021734</v>
+        <v>7.716659892726316E-05</v>
       </c>
       <c r="T5">
-        <v>0.4115799573021734</v>
+        <v>7.813835202696457E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -785,49 +785,49 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>17.1867634109762</v>
+        <v>0.007057333333333333</v>
       </c>
       <c r="H6">
-        <v>17.1867634109762</v>
+        <v>0.021172</v>
       </c>
       <c r="I6">
-        <v>0.8052653375947134</v>
+        <v>0.0001677811382698133</v>
       </c>
       <c r="J6">
-        <v>0.8052653375947134</v>
+        <v>0.0001677811382698134</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.07925660360341</v>
+        <v>5.0967785</v>
       </c>
       <c r="N6">
-        <v>4.07925660360341</v>
+        <v>10.193557</v>
       </c>
       <c r="O6">
-        <v>0.0362173562171804</v>
+        <v>0.03730894270841855</v>
       </c>
       <c r="P6">
-        <v>0.0362173562171804</v>
+        <v>0.02518584758717668</v>
       </c>
       <c r="Q6">
-        <v>70.10921813879413</v>
+        <v>0.03596966480066666</v>
       </c>
       <c r="R6">
-        <v>70.10921813879413</v>
+        <v>0.215817988804</v>
       </c>
       <c r="S6">
-        <v>0.02916458158101577</v>
+        <v>6.259736875261717E-06</v>
       </c>
       <c r="T6">
-        <v>0.02916458158101577</v>
+        <v>4.225710176466535E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>4.15621834744915</v>
+        <v>0.01630133333333333</v>
       </c>
       <c r="H7">
-        <v>4.15621834744915</v>
+        <v>0.048904</v>
       </c>
       <c r="I7">
-        <v>0.1947346624052866</v>
+        <v>0.0003875481194949439</v>
       </c>
       <c r="J7">
-        <v>0.1947346624052866</v>
+        <v>0.000387548119494944</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.4235272026005</v>
+        <v>18.59297266666667</v>
       </c>
       <c r="N7">
-        <v>11.4235272026005</v>
+        <v>55.778918</v>
       </c>
       <c r="O7">
-        <v>0.1014228802345419</v>
+        <v>0.1361024717868078</v>
       </c>
       <c r="P7">
-        <v>0.1014228802345419</v>
+        <v>0.1378163998421381</v>
       </c>
       <c r="Q7">
-        <v>47.47867335203266</v>
+        <v>0.3030902450968889</v>
       </c>
       <c r="R7">
-        <v>47.47867335203266</v>
+        <v>2.727812205872</v>
       </c>
       <c r="S7">
-        <v>0.01975055034264532</v>
+        <v>5.274625699959104E-05</v>
       </c>
       <c r="T7">
-        <v>0.01975055034264532</v>
+        <v>5.341048659438392E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>4.15621834744915</v>
+        <v>0.01630133333333333</v>
       </c>
       <c r="H8">
-        <v>4.15621834744915</v>
+        <v>0.048904</v>
       </c>
       <c r="I8">
-        <v>0.1947346624052866</v>
+        <v>0.0003875481194949439</v>
       </c>
       <c r="J8">
-        <v>0.1947346624052866</v>
+        <v>0.000387548119494944</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.12714460586886</v>
+        <v>6.746562</v>
       </c>
       <c r="N8">
-        <v>6.12714460586886</v>
+        <v>20.239686</v>
       </c>
       <c r="O8">
-        <v>0.05439936742123669</v>
+        <v>0.04938552757134602</v>
       </c>
       <c r="P8">
-        <v>0.05439936742123669</v>
+        <v>0.05000743575655815</v>
       </c>
       <c r="Q8">
-        <v>25.46575082838625</v>
+        <v>0.109977956016</v>
       </c>
       <c r="R8">
-        <v>25.46575082838625</v>
+        <v>0.989801604144</v>
       </c>
       <c r="S8">
-        <v>0.01059344244983567</v>
+        <v>1.913926834054086E-05</v>
       </c>
       <c r="T8">
-        <v>0.01059344244983567</v>
+        <v>1.938028768821833E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>4.15621834744915</v>
+        <v>0.01630133333333333</v>
       </c>
       <c r="H9">
-        <v>4.15621834744915</v>
+        <v>0.048904</v>
       </c>
       <c r="I9">
-        <v>0.1947346624052866</v>
+        <v>0.0003875481194949439</v>
       </c>
       <c r="J9">
-        <v>0.1947346624052866</v>
+        <v>0.000387548119494944</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>33.4349345224199</v>
+        <v>43.343503</v>
       </c>
       <c r="N9">
-        <v>33.4349345224199</v>
+        <v>130.030509</v>
       </c>
       <c r="O9">
-        <v>0.2968494143337083</v>
+        <v>0.3172788988591848</v>
       </c>
       <c r="P9">
-        <v>0.2968494143337083</v>
+        <v>0.3212743678538321</v>
       </c>
       <c r="Q9">
-        <v>138.9628883078426</v>
+        <v>0.7065568902373334</v>
       </c>
       <c r="R9">
-        <v>138.9628883078426</v>
+        <v>6.359012012136001</v>
       </c>
       <c r="S9">
-        <v>0.05780687048548171</v>
+        <v>0.0001229608406083036</v>
       </c>
       <c r="T9">
-        <v>0.05780687048548171</v>
+        <v>0.0001245092771036795</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>4.15621834744915</v>
+        <v>0.01630133333333333</v>
       </c>
       <c r="H10">
-        <v>4.15621834744915</v>
+        <v>0.048904</v>
       </c>
       <c r="I10">
-        <v>0.1947346624052866</v>
+        <v>0.0003875481194949439</v>
       </c>
       <c r="J10">
-        <v>0.1947346624052866</v>
+        <v>0.000387548119494944</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>57.5677814568264</v>
+        <v>62.83028666666667</v>
       </c>
       <c r="N10">
-        <v>57.5677814568264</v>
+        <v>188.49086</v>
       </c>
       <c r="O10">
-        <v>0.5111109817933327</v>
+        <v>0.4599241590742428</v>
       </c>
       <c r="P10">
-        <v>0.5111109817933327</v>
+        <v>0.4657159489602949</v>
       </c>
       <c r="Q10">
-        <v>239.2642695128049</v>
+        <v>1.024217446382222</v>
       </c>
       <c r="R10">
-        <v>239.2642695128049</v>
+        <v>9.21795701744</v>
       </c>
       <c r="S10">
-        <v>0.09953102449115921</v>
+        <v>0.0001782427429595162</v>
       </c>
       <c r="T10">
-        <v>0.09953102449115921</v>
+        <v>0.0001804873402383656</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,10 +1083,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -1095,49 +1095,669 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>4.15621834744915</v>
+        <v>0.01630133333333333</v>
       </c>
       <c r="H11">
-        <v>4.15621834744915</v>
+        <v>0.048904</v>
       </c>
       <c r="I11">
-        <v>0.1947346624052866</v>
+        <v>0.0003875481194949439</v>
       </c>
       <c r="J11">
-        <v>0.1947346624052866</v>
+        <v>0.000387548119494944</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.07925660360341</v>
+        <v>5.0967785</v>
       </c>
       <c r="N11">
-        <v>4.07925660360341</v>
+        <v>10.193557</v>
       </c>
       <c r="O11">
-        <v>0.0362173562171804</v>
+        <v>0.03730894270841855</v>
       </c>
       <c r="P11">
-        <v>0.0362173562171804</v>
+        <v>0.02518584758717668</v>
       </c>
       <c r="Q11">
-        <v>16.9542811398496</v>
+        <v>0.08308428525466667</v>
       </c>
       <c r="R11">
-        <v>16.9542811398496</v>
+        <v>0.4985057115280001</v>
       </c>
       <c r="S11">
-        <v>0.007052774636164633</v>
+        <v>1.445901058699221E-05</v>
       </c>
       <c r="T11">
-        <v>0.007052774636164633</v>
+        <v>9.760727870296594E-06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>34.853033</v>
+      </c>
+      <c r="H12">
+        <v>104.559099</v>
+      </c>
+      <c r="I12">
+        <v>0.8285964786834547</v>
+      </c>
+      <c r="J12">
+        <v>0.8285964786834547</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>18.59297266666667</v>
+      </c>
+      <c r="N12">
+        <v>55.778918</v>
+      </c>
+      <c r="O12">
+        <v>0.1361024717868078</v>
+      </c>
+      <c r="P12">
+        <v>0.1378163998421381</v>
+      </c>
+      <c r="Q12">
+        <v>648.0214899194314</v>
+      </c>
+      <c r="R12">
+        <v>5832.193409274882</v>
+      </c>
+      <c r="S12">
+        <v>0.1127740288626632</v>
+      </c>
+      <c r="T12">
+        <v>0.1141941836140267</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>34.853033</v>
+      </c>
+      <c r="H13">
+        <v>104.559099</v>
+      </c>
+      <c r="I13">
+        <v>0.8285964786834547</v>
+      </c>
+      <c r="J13">
+        <v>0.8285964786834547</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>6.746562</v>
+      </c>
+      <c r="N13">
+        <v>20.239686</v>
+      </c>
+      <c r="O13">
+        <v>0.04938552757134602</v>
+      </c>
+      <c r="P13">
+        <v>0.05000743575655815</v>
+      </c>
+      <c r="Q13">
+        <v>235.138148022546</v>
+      </c>
+      <c r="R13">
+        <v>2116.243332202914</v>
+      </c>
+      <c r="S13">
+        <v>0.04092067424354198</v>
+      </c>
+      <c r="T13">
+        <v>0.04143598517587316</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>34.853033</v>
+      </c>
+      <c r="H14">
+        <v>104.559099</v>
+      </c>
+      <c r="I14">
+        <v>0.8285964786834547</v>
+      </c>
+      <c r="J14">
+        <v>0.8285964786834547</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>43.343503</v>
+      </c>
+      <c r="N14">
+        <v>130.030509</v>
+      </c>
+      <c r="O14">
+        <v>0.3172788988591848</v>
+      </c>
+      <c r="P14">
+        <v>0.3212743678538321</v>
+      </c>
+      <c r="Q14">
+        <v>1510.652540394599</v>
+      </c>
+      <c r="R14">
+        <v>13595.87286355139</v>
+      </c>
+      <c r="S14">
+        <v>0.2628961783552844</v>
+      </c>
+      <c r="T14">
+        <v>0.2662068098949381</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>34.853033</v>
+      </c>
+      <c r="H15">
+        <v>104.559099</v>
+      </c>
+      <c r="I15">
+        <v>0.8285964786834547</v>
+      </c>
+      <c r="J15">
+        <v>0.8285964786834547</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>62.83028666666667</v>
+      </c>
+      <c r="N15">
+        <v>188.49086</v>
+      </c>
+      <c r="O15">
+        <v>0.4599241590742428</v>
+      </c>
+      <c r="P15">
+        <v>0.4657159489602949</v>
+      </c>
+      <c r="Q15">
+        <v>2189.826054592793</v>
+      </c>
+      <c r="R15">
+        <v>19708.43449133514</v>
+      </c>
+      <c r="S15">
+        <v>0.3810915386703666</v>
+      </c>
+      <c r="T15">
+        <v>0.3858905953752239</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>34.853033</v>
+      </c>
+      <c r="H16">
+        <v>104.559099</v>
+      </c>
+      <c r="I16">
+        <v>0.8285964786834547</v>
+      </c>
+      <c r="J16">
+        <v>0.8285964786834547</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>5.0967785</v>
+      </c>
+      <c r="N16">
+        <v>10.193557</v>
+      </c>
+      <c r="O16">
+        <v>0.03730894270841855</v>
+      </c>
+      <c r="P16">
+        <v>0.02518584758717668</v>
+      </c>
+      <c r="Q16">
+        <v>177.6381892541905</v>
+      </c>
+      <c r="R16">
+        <v>1065.829135525143</v>
+      </c>
+      <c r="S16">
+        <v>0.03091405855159836</v>
+      </c>
+      <c r="T16">
+        <v>0.02086890462339278</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>7.186342000000001</v>
+      </c>
+      <c r="H17">
+        <v>21.559026</v>
+      </c>
+      <c r="I17">
+        <v>0.1708481920587805</v>
+      </c>
+      <c r="J17">
+        <v>0.1708481920587805</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>18.59297266666667</v>
+      </c>
+      <c r="N17">
+        <v>55.778918</v>
+      </c>
+      <c r="O17">
+        <v>0.1361024717868078</v>
+      </c>
+      <c r="P17">
+        <v>0.1378163998421381</v>
+      </c>
+      <c r="Q17">
+        <v>133.6154603793187</v>
+      </c>
+      <c r="R17">
+        <v>1202.539143413868</v>
+      </c>
+      <c r="S17">
+        <v>0.02325286123950731</v>
+      </c>
+      <c r="T17">
+        <v>0.02354568274907931</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>7.186342000000001</v>
+      </c>
+      <c r="H18">
+        <v>21.559026</v>
+      </c>
+      <c r="I18">
+        <v>0.1708481920587805</v>
+      </c>
+      <c r="J18">
+        <v>0.1708481920587805</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>6.746562</v>
+      </c>
+      <c r="N18">
+        <v>20.239686</v>
+      </c>
+      <c r="O18">
+        <v>0.04938552757134602</v>
+      </c>
+      <c r="P18">
+        <v>0.05000743575655815</v>
+      </c>
+      <c r="Q18">
+        <v>48.483101856204</v>
+      </c>
+      <c r="R18">
+        <v>436.347916705836</v>
+      </c>
+      <c r="S18">
+        <v>0.008437428099433528</v>
+      </c>
+      <c r="T18">
+        <v>0.008543679988503576</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>7.186342000000001</v>
+      </c>
+      <c r="H19">
+        <v>21.559026</v>
+      </c>
+      <c r="I19">
+        <v>0.1708481920587805</v>
+      </c>
+      <c r="J19">
+        <v>0.1708481920587805</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>43.343503</v>
+      </c>
+      <c r="N19">
+        <v>130.030509</v>
+      </c>
+      <c r="O19">
+        <v>0.3172788988591848</v>
+      </c>
+      <c r="P19">
+        <v>0.3212743678538321</v>
+      </c>
+      <c r="Q19">
+        <v>311.481236036026</v>
+      </c>
+      <c r="R19">
+        <v>2803.331124324234</v>
+      </c>
+      <c r="S19">
+        <v>0.05420652624849241</v>
+      </c>
+      <c r="T19">
+        <v>0.05488914490265481</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>7.186342000000001</v>
+      </c>
+      <c r="H20">
+        <v>21.559026</v>
+      </c>
+      <c r="I20">
+        <v>0.1708481920587805</v>
+      </c>
+      <c r="J20">
+        <v>0.1708481920587805</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>62.83028666666667</v>
+      </c>
+      <c r="N20">
+        <v>188.49086</v>
+      </c>
+      <c r="O20">
+        <v>0.4599241590742428</v>
+      </c>
+      <c r="P20">
+        <v>0.4657159489602949</v>
+      </c>
+      <c r="Q20">
+        <v>451.5199279447067</v>
+      </c>
+      <c r="R20">
+        <v>4063.679351502361</v>
+      </c>
+      <c r="S20">
+        <v>0.07857721106198937</v>
+      </c>
+      <c r="T20">
+        <v>0.07956672789280569</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>7.186342000000001</v>
+      </c>
+      <c r="H21">
+        <v>21.559026</v>
+      </c>
+      <c r="I21">
+        <v>0.1708481920587805</v>
+      </c>
+      <c r="J21">
+        <v>0.1708481920587805</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>5.0967785</v>
+      </c>
+      <c r="N21">
+        <v>10.193557</v>
+      </c>
+      <c r="O21">
+        <v>0.03730894270841855</v>
+      </c>
+      <c r="P21">
+        <v>0.02518584758717668</v>
+      </c>
+      <c r="Q21">
+        <v>36.62719339924701</v>
+      </c>
+      <c r="R21">
+        <v>219.763160395482</v>
+      </c>
+      <c r="S21">
+        <v>0.006374165409357932</v>
+      </c>
+      <c r="T21">
+        <v>0.004302956525737135</v>
       </c>
     </row>
   </sheetData>
